--- a/anton_import_test_data.xlsx
+++ b/anton_import_test_data.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ak/Sites/anton_import_test_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42340" yWindow="-6000" windowWidth="19980" windowHeight="16820"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="22960"/>
   </bookViews>
   <sheets>
     <sheet name="import_tabelle" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="163">
   <si>
     <t>parent</t>
   </si>
@@ -69,9 +77,6 @@
     <t>bilder</t>
   </si>
   <si>
-    <t>bild_import_kommentar</t>
-  </si>
-  <si>
     <t>schlagworte</t>
   </si>
   <si>
@@ -148,9 +153,6 @@
   </si>
   <si>
     <t>Bild</t>
-  </si>
-  <si>
-    <t>Archives of Pearson Scott Foresman, donated to the Wikimedia Foundation</t>
   </si>
   <si>
     <t>Anton das Erdferkel</t>
@@ -417,9 +419,6 @@
     <t>Érik Desmazières</t>
   </si>
   <si>
-    <t>archivistebg.jpg</t>
-  </si>
-  <si>
     <t>Kunst</t>
   </si>
   <si>
@@ -514,6 +513,45 @@
   </si>
   <si>
     <t>private</t>
+  </si>
+  <si>
+    <t>manuelle Signatur</t>
+  </si>
+  <si>
+    <t>Testdatensatz mit manueller Signatur</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>archivistebg.jpg::archivistebg.tif</t>
+  </si>
+  <si>
+    <t>standard_sperrfrist.png</t>
+  </si>
+  <si>
+    <t>verlängerte_sperrfrist.png</t>
+  </si>
+  <si>
+    <t>private.png</t>
+  </si>
+  <si>
+    <t>Testdatensatz mit abgelaufener Standard Sperrfrist</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>standard_sperrfrist_abgelaufen.png</t>
+  </si>
+  <si>
+    <t>Testdatensatz mit abgelaufener verlängerter Schutzfrist</t>
+  </si>
+  <si>
+    <t>1900</t>
+  </si>
+  <si>
+    <t>verlaengerte_sperrfrist_abgelaufen.png</t>
   </si>
 </sst>
 </file>
@@ -562,7 +600,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -612,6 +650,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
@@ -620,7 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="52">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -646,34 +686,41 @@
     <cellStyle name="Besuchter Link" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Link" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -967,14 +1014,14 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AN19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
@@ -992,31 +1039,30 @@
     <col min="14" max="14" width="19" customWidth="1"/>
     <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" customWidth="1"/>
-    <col min="22" max="22" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="27" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="33" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="18" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="21" max="21" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="27" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="33" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1088,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1075,16 +1121,16 @@
         <v>17</v>
       </c>
       <c r="T1" t="s">
+        <v>149</v>
+      </c>
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
-        <v>152</v>
-      </c>
       <c r="V1" t="s">
+        <v>71</v>
+      </c>
+      <c r="W1" t="s">
         <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>73</v>
       </c>
       <c r="X1" t="s">
         <v>20</v>
@@ -1093,727 +1139,721 @@
         <v>21</v>
       </c>
       <c r="Z1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA1" t="s">
         <v>22</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>110</v>
       </c>
       <c r="AB1" t="s">
         <v>23</v>
       </c>
       <c r="AC1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" t="s">
         <v>24</v>
       </c>
-      <c r="AD1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AG1" t="s">
+      <c r="AJ1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM1" t="s">
         <v>76</v>
       </c>
-      <c r="AH1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="AN1" t="s">
         <v>107</v>
       </c>
-      <c r="AL1" t="s">
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
       </c>
       <c r="S2" t="s">
         <v>33</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>34</v>
       </c>
-      <c r="V2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="X2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" t="s">
         <v>43</v>
       </c>
-      <c r="S3" t="s">
-        <v>52</v>
-      </c>
-      <c r="T3" t="s">
-        <v>34</v>
-      </c>
-      <c r="V3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>82</v>
+      <c r="X3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:41">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4" t="s">
+        <v>123</v>
+      </c>
+      <c r="R4" t="s">
+        <v>124</v>
+      </c>
+      <c r="S4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" t="s">
+        <v>125</v>
+      </c>
+      <c r="X4" t="s">
         <v>126</v>
       </c>
-      <c r="S4" t="s">
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>127</v>
       </c>
-      <c r="T4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>130</v>
-      </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="R5" t="s">
+        <v>92</v>
       </c>
       <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" t="s">
+        <v>93</v>
+      </c>
+      <c r="X5" t="s">
         <v>94</v>
       </c>
-      <c r="T5" t="s">
-        <v>34</v>
-      </c>
-      <c r="V5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y5" t="s">
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>101</v>
+        <v>99</v>
+      </c>
+      <c r="R6" t="s">
+        <v>100</v>
       </c>
       <c r="S6" t="s">
-        <v>102</v>
-      </c>
-      <c r="T6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:41">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>137</v>
+        <v>134</v>
+      </c>
+      <c r="R7" t="s">
+        <v>135</v>
       </c>
       <c r="S7" t="s">
-        <v>138</v>
-      </c>
-      <c r="T7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>139</v>
+        <v>33</v>
+      </c>
+      <c r="X7" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:41">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="R8" t="s">
+        <v>135</v>
       </c>
       <c r="S8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X8" t="s">
         <v>138</v>
       </c>
-      <c r="T8" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y8" t="s">
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="R9" t="s">
+        <v>135</v>
       </c>
       <c r="S9" t="s">
+        <v>84</v>
+      </c>
+      <c r="X9" t="s">
         <v>138</v>
       </c>
-      <c r="T9" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="10" spans="1:41">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>149</v>
+        <v>146</v>
+      </c>
+      <c r="R10" t="s">
+        <v>135</v>
       </c>
       <c r="S10" t="s">
+        <v>84</v>
+      </c>
+      <c r="X10" t="s">
         <v>138</v>
       </c>
-      <c r="T10" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>141</v>
-      </c>
     </row>
-    <row r="11" spans="1:41">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11" t="s">
+        <v>153</v>
+      </c>
+      <c r="R11" t="s">
+        <v>118</v>
+      </c>
+      <c r="S11" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" t="s">
         <v>120</v>
       </c>
-      <c r="S11" t="s">
-        <v>121</v>
-      </c>
-      <c r="T11" t="s">
-        <v>88</v>
-      </c>
-      <c r="V11" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>122</v>
+      <c r="X11" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:41">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
+      <c r="R12" t="s">
+        <v>52</v>
+      </c>
       <c r="S12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" t="s">
+        <v>51</v>
+      </c>
+      <c r="V12" t="s">
+        <v>79</v>
+      </c>
+      <c r="W12" t="s">
+        <v>53</v>
+      </c>
+      <c r="X12" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y12" t="s">
         <v>54</v>
       </c>
-      <c r="T12" t="s">
-        <v>34</v>
-      </c>
-      <c r="V12" t="s">
-        <v>53</v>
-      </c>
-      <c r="W12" t="s">
-        <v>81</v>
-      </c>
-      <c r="X12" t="s">
+      <c r="Z12" t="s">
         <v>55</v>
       </c>
-      <c r="Y12" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>56</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>57</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>58</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE12" t="s">
         <v>59</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>60</v>
       </c>
-      <c r="AE12" t="s">
-        <v>79</v>
-      </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH12" t="s">
         <v>61</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AI12" t="s">
         <v>62</v>
       </c>
-      <c r="AH12" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>63</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>64</v>
       </c>
       <c r="AK12" t="s">
         <v>65</v>
       </c>
       <c r="AL12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN12" t="s">
         <v>67</v>
       </c>
-      <c r="AM12" t="s">
-        <v>80</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>69</v>
-      </c>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -1821,37 +1861,40 @@
       <c r="P13">
         <v>0</v>
       </c>
+      <c r="Q13" t="s">
+        <v>154</v>
+      </c>
+      <c r="R13" t="s">
+        <v>52</v>
+      </c>
       <c r="S13" t="s">
-        <v>54</v>
-      </c>
-      <c r="T13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="H14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="L14">
         <v>2</v>
@@ -1859,37 +1902,40 @@
       <c r="P14">
         <v>0</v>
       </c>
+      <c r="Q14" t="s">
+        <v>155</v>
+      </c>
+      <c r="R14" t="s">
+        <v>52</v>
+      </c>
       <c r="S14" t="s">
-        <v>54</v>
-      </c>
-      <c r="T14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -1897,37 +1943,37 @@
       <c r="P15">
         <v>0</v>
       </c>
-      <c r="T15" t="s">
-        <v>34</v>
-      </c>
-      <c r="V15" t="s">
-        <v>115</v>
+      <c r="S15" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" t="s">
+        <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -1935,21 +1981,133 @@
       <c r="P16">
         <v>0</v>
       </c>
-      <c r="T16" t="s">
-        <v>34</v>
-      </c>
-      <c r="U16">
+      <c r="Q16" t="s">
+        <v>156</v>
+      </c>
+      <c r="S16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" t="s">
+        <v>151</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="S17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>159</v>
+      </c>
+      <c r="S18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>162</v>
+      </c>
+      <c r="S19" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/anton_import_test_data.xlsx
+++ b/anton_import_test_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="22960"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16960"/>
   </bookViews>
   <sheets>
     <sheet name="import_tabelle" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="169">
   <si>
     <t>parent</t>
   </si>
@@ -278,6 +278,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>public domain</t>
     </r>
@@ -295,6 +296,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Pearson Scott Foresman</t>
     </r>
@@ -552,6 +554,24 @@
   </si>
   <si>
     <t>verlaengerte_sperrfrist_abgelaufen.png</t>
+  </si>
+  <si>
+    <t>digitalisiert_von</t>
+  </si>
+  <si>
+    <t>digitalisiert_datum</t>
+  </si>
+  <si>
+    <t>Testdatensatz ausgeliehen</t>
+  </si>
+  <si>
+    <t>1872</t>
+  </si>
+  <si>
+    <t>loan</t>
+  </si>
+  <si>
+    <t>anton::1911-01-01</t>
   </si>
 </sst>
 </file>
@@ -569,18 +589,21 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -600,7 +623,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -650,6 +673,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -660,7 +693,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="62">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -687,6 +720,11 @@
     <cellStyle name="Besuchter Link" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -712,6 +750,11 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1014,11 +1057,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:AQ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N28" sqref="N28"/>
+      <selection pane="bottomLeft" activeCell="AQ20" sqref="AQ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1039,30 +1082,31 @@
     <col min="14" max="14" width="19" customWidth="1"/>
     <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="19" width="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="27" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="33" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="21" customWidth="1"/>
+    <col min="19" max="19" width="21" style="1" customWidth="1"/>
+    <col min="20" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" customWidth="1"/>
+    <col min="23" max="23" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="27" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="33" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1115,76 +1159,85 @@
         <v>15</v>
       </c>
       <c r="R1" t="s">
+        <v>163</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="T1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>149</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>71</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>19</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>23</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>72</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>73</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>69</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>74</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>75</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>106</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>105</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>70</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AO1" t="s">
         <v>76</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AP1" t="s">
         <v>107</v>
       </c>
+      <c r="AQ1" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -1230,20 +1283,20 @@
       <c r="Q2" t="s">
         <v>44</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>33</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1281,23 +1334,23 @@
       <c r="Q3" t="s">
         <v>101</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>50</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>33</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" t="s">
         <v>43</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Z3" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AE3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -1336,19 +1389,25 @@
         <v>123</v>
       </c>
       <c r="R4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="T4" t="s">
         <v>124</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" t="s">
         <v>33</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" t="s">
         <v>125</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -1392,20 +1451,20 @@
       <c r="Q5" t="s">
         <v>95</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>92</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" t="s">
         <v>33</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" t="s">
         <v>93</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -1447,14 +1506,14 @@
       <c r="Q6" t="s">
         <v>99</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>100</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -1496,17 +1555,17 @@
       <c r="Q7" t="s">
         <v>134</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>135</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" t="s">
         <v>33</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -1548,17 +1607,17 @@
       <c r="Q8" t="s">
         <v>137</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>135</v>
       </c>
-      <c r="S8" t="s">
+      <c r="U8" t="s">
         <v>84</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Z8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -1600,17 +1659,17 @@
       <c r="Q9" t="s">
         <v>143</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>135</v>
       </c>
-      <c r="S9" t="s">
+      <c r="U9" t="s">
         <v>84</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Z9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -1652,17 +1711,17 @@
       <c r="Q10" t="s">
         <v>146</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>135</v>
       </c>
-      <c r="S10" t="s">
+      <c r="U10" t="s">
         <v>84</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Z10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -1704,20 +1763,20 @@
       <c r="Q11" t="s">
         <v>153</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>118</v>
       </c>
-      <c r="S11" t="s">
+      <c r="U11" t="s">
         <v>86</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
         <v>120</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Z11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -1763,74 +1822,74 @@
       <c r="P12">
         <v>0</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
         <v>52</v>
       </c>
-      <c r="S12" t="s">
+      <c r="U12" t="s">
         <v>33</v>
       </c>
-      <c r="U12" t="s">
+      <c r="W12" t="s">
         <v>51</v>
       </c>
-      <c r="V12" t="s">
+      <c r="X12" t="s">
         <v>79</v>
       </c>
-      <c r="W12" t="s">
+      <c r="Y12" t="s">
         <v>53</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Z12" t="s">
         <v>82</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AA12" t="s">
         <v>54</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AB12" t="s">
         <v>55</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AC12" t="s">
         <v>56</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AD12" t="s">
         <v>57</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AE12" t="s">
         <v>58</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>77</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AG12" t="s">
         <v>59</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>60</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AI12" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
         <v>61</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AK12" t="s">
         <v>62</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AL12" t="s">
         <v>63</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AM12" t="s">
         <v>65</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AN12" t="s">
         <v>78</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AO12" t="s">
         <v>66</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AP12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -1864,14 +1923,14 @@
       <c r="Q13" t="s">
         <v>154</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
         <v>52</v>
       </c>
-      <c r="S13" t="s">
+      <c r="U13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -1905,14 +1964,14 @@
       <c r="Q14" t="s">
         <v>155</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>52</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -1943,14 +2002,14 @@
       <c r="P15">
         <v>0</v>
       </c>
-      <c r="S15" t="s">
+      <c r="U15" t="s">
         <v>33</v>
       </c>
-      <c r="U15" t="s">
+      <c r="W15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -1984,14 +2043,14 @@
       <c r="Q16" t="s">
         <v>156</v>
       </c>
-      <c r="S16" t="s">
+      <c r="U16" t="s">
         <v>33</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -2025,11 +2084,11 @@
       <c r="P17">
         <v>0</v>
       </c>
-      <c r="S17" t="s">
+      <c r="U17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -2063,11 +2122,11 @@
       <c r="Q18" t="s">
         <v>159</v>
       </c>
-      <c r="S18" t="s">
+      <c r="U18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -2101,8 +2160,46 @@
       <c r="Q19" t="s">
         <v>162</v>
       </c>
-      <c r="S19" t="s">
+      <c r="U19" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="U20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/anton_import_test_data.xlsx
+++ b/anton_import_test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16960"/>
+    <workbookView xWindow="540" yWindow="460" windowWidth="26720" windowHeight="16960"/>
   </bookViews>
   <sheets>
     <sheet name="import_tabelle" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="172">
   <si>
     <t>parent</t>
   </si>
@@ -572,6 +572,15 @@
   </si>
   <si>
     <t>anton::1911-01-01</t>
+  </si>
+  <si>
+    <t>schlagworte_names</t>
+  </si>
+  <si>
+    <t>Kränzle, Andreas; Meyerhans, Andreas</t>
+  </si>
+  <si>
+    <t>Helg, Pater Lukas</t>
   </si>
 </sst>
 </file>
@@ -623,7 +632,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="62">
+  <cellStyleXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -673,6 +682,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -693,7 +732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="62">
+  <cellStyles count="92">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -725,6 +764,21 @@
     <cellStyle name="Besuchter Link" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -755,6 +809,21 @@
     <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1057,11 +1126,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AR20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ20" sqref="AQ20"/>
+      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1084,29 +1153,31 @@
     <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="21" customWidth="1"/>
     <col min="19" max="19" width="21" style="1" customWidth="1"/>
-    <col min="20" max="21" width="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" customWidth="1"/>
-    <col min="23" max="23" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="27" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="33" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14" customWidth="1"/>
+    <col min="24" max="24" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="27" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="33" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="37.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1168,76 +1239,79 @@
         <v>16</v>
       </c>
       <c r="U1" t="s">
+        <v>169</v>
+      </c>
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>149</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>71</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>108</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>22</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>23</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>72</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>73</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>69</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>74</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>75</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>106</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>24</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>105</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>25</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>70</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>76</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>107</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -1286,17 +1360,17 @@
       <c r="T2" t="s">
         <v>32</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>33</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1337,20 +1411,20 @@
       <c r="T3" t="s">
         <v>50</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>33</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>39</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -1397,17 +1471,17 @@
       <c r="T4" t="s">
         <v>124</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>33</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>125</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -1455,16 +1529,19 @@
         <v>92</v>
       </c>
       <c r="U5" t="s">
+        <v>170</v>
+      </c>
+      <c r="V5" t="s">
         <v>33</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>93</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>127</v>
       </c>
@@ -1510,10 +1587,13 @@
         <v>100</v>
       </c>
       <c r="U6" t="s">
+        <v>171</v>
+      </c>
+      <c r="V6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -1558,14 +1638,14 @@
       <c r="T7" t="s">
         <v>135</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>33</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -1610,14 +1690,14 @@
       <c r="T8" t="s">
         <v>135</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>84</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -1662,14 +1742,14 @@
       <c r="T9" t="s">
         <v>135</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>84</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -1714,14 +1794,14 @@
       <c r="T10" t="s">
         <v>135</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>84</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -1766,17 +1846,17 @@
       <c r="T11" t="s">
         <v>118</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>86</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>120</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -1825,71 +1905,71 @@
       <c r="T12" t="s">
         <v>52</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>33</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>51</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>79</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>53</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>82</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>54</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>55</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>56</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>57</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>58</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>77</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>59</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>60</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>64</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>61</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AL12" t="s">
         <v>62</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>63</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AN12" t="s">
         <v>65</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AO12" t="s">
         <v>78</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AP12" t="s">
         <v>66</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AQ12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -1926,11 +2006,11 @@
       <c r="T13" t="s">
         <v>52</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -1967,11 +2047,11 @@
       <c r="T14" t="s">
         <v>52</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>103</v>
       </c>
@@ -2002,14 +2082,14 @@
       <c r="P15">
         <v>0</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>33</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>103</v>
       </c>
@@ -2043,14 +2123,14 @@
       <c r="Q16" t="s">
         <v>156</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>33</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>103</v>
       </c>
@@ -2084,11 +2164,11 @@
       <c r="P17">
         <v>0</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>103</v>
       </c>
@@ -2122,11 +2202,11 @@
       <c r="Q18" t="s">
         <v>159</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -2160,11 +2240,11 @@
       <c r="Q19" t="s">
         <v>162</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -2195,10 +2275,10 @@
       <c r="P20">
         <v>0</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>33</v>
       </c>
-      <c r="AQ20" t="s">
+      <c r="AR20" t="s">
         <v>168</v>
       </c>
     </row>

--- a/anton_import_test_data.xlsx
+++ b/anton_import_test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="540" yWindow="460" windowWidth="26720" windowHeight="16960"/>
+    <workbookView xWindow="37640" yWindow="460" windowWidth="35600" windowHeight="22780"/>
   </bookViews>
   <sheets>
     <sheet name="import_tabelle" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="209">
   <si>
     <t>parent</t>
   </si>
@@ -379,21 +379,9 @@
     <t>Test 1</t>
   </si>
   <si>
-    <t>datierung_kommentar</t>
-  </si>
-  <si>
     <t>publikationen</t>
   </si>
   <si>
-    <t>kopien_und_reproduktionen</t>
-  </si>
-  <si>
-    <t>verzeichnungsgrundsaetze</t>
-  </si>
-  <si>
-    <t>neuzugaenge</t>
-  </si>
-  <si>
     <t>2001-03-02</t>
   </si>
   <si>
@@ -581,6 +569,129 @@
   </si>
   <si>
     <t>Helg, Pater Lukas</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Bestandsgruppe</t>
+  </si>
+  <si>
+    <t>Sammlung</t>
+  </si>
+  <si>
+    <t>Test Recordgroup (für Tektonik-Tests)</t>
+  </si>
+  <si>
+    <t>schlagworte_places</t>
+  </si>
+  <si>
+    <t>Zürich</t>
+  </si>
+  <si>
+    <t>acquisition_datum_von</t>
+  </si>
+  <si>
+    <t>acquisition_datum_von_ca</t>
+  </si>
+  <si>
+    <t>acquisition_datum_bis</t>
+  </si>
+  <si>
+    <t>acquisition_datum_bis_ca</t>
+  </si>
+  <si>
+    <t>acquisition_actor</t>
+  </si>
+  <si>
+    <t>acquisition_comment</t>
+  </si>
+  <si>
+    <t>Bestand</t>
+  </si>
+  <si>
+    <t>1913-01-03</t>
+  </si>
+  <si>
+    <t>1917</t>
+  </si>
+  <si>
+    <t>Kränzle, Andreas</t>
+  </si>
+  <si>
+    <t>Hier kommt der Kommentar zur Acquisition</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>kommentar_zur_datierung</t>
+  </si>
+  <si>
+    <t>kopienreproduktionen</t>
+  </si>
+  <si>
+    <t>verzeichnungsgrundsatze</t>
+  </si>
+  <si>
+    <t>status_of_description</t>
+  </si>
+  <si>
+    <t>detail_of_description</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>extent_lfm</t>
+  </si>
+  <si>
+    <t>neuzugange</t>
+  </si>
+  <si>
+    <t>Zürich::Bern::Aargau</t>
+  </si>
+  <si>
+    <t>Kränzle &amp; Ritter;Meyerhans, Andreas</t>
+  </si>
+  <si>
+    <t>Test 3 Bestand (über Excel importiert)</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Grissemann &amp; Stermann</t>
+  </si>
+  <si>
+    <t>erstellungsort</t>
+  </si>
+  <si>
+    <t>Dossier aus München</t>
+  </si>
+  <si>
+    <t>München ?</t>
+  </si>
+  <si>
+    <t>Dossier aus Zürich und Ausgburg</t>
+  </si>
+  <si>
+    <t>Zürich und Augsburg</t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>Test 2/1</t>
+  </si>
+  <si>
+    <t>Test 2/2</t>
   </si>
 </sst>
 </file>
@@ -632,7 +743,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="92">
+  <cellStyleXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -682,6 +793,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -732,7 +853,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="92">
+  <cellStyles count="102">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -779,6 +900,11 @@
     <cellStyle name="Besuchter Link" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="101" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -824,6 +950,11 @@
     <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1126,11 +1257,11 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR20"/>
+  <dimension ref="A1:BC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U7" sqref="U7"/>
+      <selection pane="bottomLeft" activeCell="X27" sqref="X27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1147,37 +1278,40 @@
     <col min="10" max="10" width="17.83203125" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="37" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
-    <col min="15" max="15" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="21" customWidth="1"/>
-    <col min="19" max="19" width="21" style="1" customWidth="1"/>
-    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" customWidth="1"/>
+    <col min="14" max="14" width="37" customWidth="1"/>
+    <col min="15" max="15" width="16.5" customWidth="1"/>
+    <col min="16" max="16" width="19" customWidth="1"/>
+    <col min="17" max="17" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="21" customWidth="1"/>
+    <col min="21" max="21" width="21" style="1" customWidth="1"/>
     <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="24" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="38.83203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="27" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="33" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14" customWidth="1"/>
+    <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="14" customWidth="1"/>
+    <col min="29" max="29" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="38.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="27" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="33" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="55" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1203,7 +1337,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1214,104 +1348,137 @@
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>201</v>
+      </c>
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>159</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>172</v>
+      </c>
+      <c r="X1" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AW1" t="s">
         <v>163</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="T1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U1" t="s">
-        <v>169</v>
-      </c>
-      <c r="V1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" t="s">
-        <v>149</v>
-      </c>
-      <c r="X1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>167</v>
+      <c r="AX1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>102</v>
       </c>
@@ -1342,35 +1509,38 @@
       <c r="L2">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>35</v>
       </c>
-      <c r="O2" t="s">
-        <v>147</v>
-      </c>
-      <c r="P2">
+      <c r="Q2" t="s">
+        <v>143</v>
+      </c>
+      <c r="R2">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>44</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y2" t="s">
         <v>33</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AC2" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AF2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -1399,46 +1569,47 @@
       <c r="L3">
         <v>1</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P3">
+      <c r="O3" s="2"/>
+      <c r="R3">
         <v>0</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>101</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>50</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Y3" t="s">
         <v>33</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AC3" t="s">
         <v>43</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AF3" t="s">
         <v>39</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AK3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>28</v>
@@ -1448,42 +1619,43 @@
         <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="P4">
+      <c r="O4" s="3"/>
+      <c r="R4">
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
+        <v>119</v>
+      </c>
+      <c r="T4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2016</v>
+      </c>
+      <c r="V4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>123</v>
-      </c>
-      <c r="R4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="1">
-        <v>2016</v>
-      </c>
-      <c r="T4" t="s">
-        <v>124</v>
-      </c>
-      <c r="V4" t="s">
-        <v>33</v>
-      </c>
-      <c r="X4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>127</v>
       </c>
       <c r="D5" t="s">
         <v>87</v>
@@ -1510,40 +1682,41 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="2"/>
+      <c r="P5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O5" t="s">
-        <v>147</v>
-      </c>
-      <c r="P5">
+      <c r="Q5" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5">
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>95</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>92</v>
       </c>
-      <c r="U5" t="s">
-        <v>170</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="X5" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y5" t="s">
         <v>33</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AC5" t="s">
         <v>93</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AF5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
         <v>96</v>
@@ -1570,44 +1743,45 @@
       <c r="L6">
         <v>1</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" t="s">
-        <v>147</v>
-      </c>
-      <c r="P6">
+      <c r="O6" s="3"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" t="s">
+        <v>143</v>
+      </c>
+      <c r="R6">
         <v>0</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>99</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>100</v>
       </c>
-      <c r="U6" t="s">
-        <v>171</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>28</v>
@@ -1617,49 +1791,50 @@
         <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>130</v>
+      </c>
+      <c r="V7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF7" t="s">
         <v>132</v>
       </c>
-      <c r="N7" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O7" s="1"/>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>134</v>
-      </c>
-      <c r="T7" t="s">
-        <v>135</v>
-      </c>
-      <c r="V7" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA7" t="s">
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" t="s">
-        <v>140</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>47</v>
@@ -1674,44 +1849,45 @@
       <c r="L8">
         <v>1</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" t="s">
-        <v>147</v>
-      </c>
-      <c r="P8">
+      <c r="N8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" t="s">
+        <v>143</v>
+      </c>
+      <c r="R8">
         <v>0</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
+        <v>133</v>
+      </c>
+      <c r="V8" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="T8" t="s">
-        <v>135</v>
-      </c>
-      <c r="V8" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>47</v>
@@ -1726,44 +1902,45 @@
       <c r="L9">
         <v>1</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" t="s">
-        <v>147</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
+      <c r="N9" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="1"/>
       <c r="Q9" t="s">
         <v>143</v>
       </c>
-      <c r="T9" t="s">
-        <v>135</v>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>139</v>
       </c>
       <c r="V9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y9" t="s">
         <v>84</v>
       </c>
-      <c r="AA9" t="s">
-        <v>138</v>
+      <c r="AF9" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>47</v>
@@ -1778,44 +1955,45 @@
       <c r="L10">
         <v>1</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="N10" s="1"/>
-      <c r="O10" t="s">
-        <v>147</v>
-      </c>
-      <c r="P10">
+      <c r="N10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="O10" s="3"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" t="s">
+        <v>143</v>
+      </c>
+      <c r="R10">
         <v>0</v>
       </c>
-      <c r="Q10" t="s">
-        <v>146</v>
-      </c>
-      <c r="T10" t="s">
-        <v>135</v>
+      <c r="S10" t="s">
+        <v>142</v>
       </c>
       <c r="V10" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y10" t="s">
         <v>84</v>
       </c>
-      <c r="AA10" t="s">
-        <v>138</v>
+      <c r="AF10" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>28</v>
@@ -1830,33 +2008,34 @@
       <c r="L11">
         <v>1</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="N11" s="1"/>
-      <c r="O11" t="s">
-        <v>147</v>
-      </c>
-      <c r="P11">
+      <c r="N11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" s="3"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" t="s">
+        <v>143</v>
+      </c>
+      <c r="R11">
         <v>0</v>
       </c>
-      <c r="Q11" t="s">
-        <v>153</v>
-      </c>
-      <c r="T11" t="s">
-        <v>118</v>
+      <c r="S11" t="s">
+        <v>149</v>
       </c>
       <c r="V11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y11" t="s">
         <v>86</v>
       </c>
-      <c r="X11" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>119</v>
+      <c r="AC11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>103</v>
       </c>
@@ -1890,86 +2069,93 @@
       <c r="L12">
         <v>1</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1"/>
+      <c r="P12" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="O12" t="s">
-        <v>147</v>
-      </c>
-      <c r="P12">
+      <c r="Q12" t="s">
+        <v>143</v>
+      </c>
+      <c r="R12">
         <v>0</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>52</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
+        <v>196</v>
+      </c>
+      <c r="X12" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y12" t="s">
         <v>33</v>
       </c>
-      <c r="X12" t="s">
+      <c r="AC12" t="s">
         <v>51</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="AD12" t="s">
         <v>79</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AE12" t="s">
         <v>53</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AF12" t="s">
         <v>82</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AG12" t="s">
         <v>54</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AH12" t="s">
         <v>55</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AI12" t="s">
         <v>56</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AJ12" t="s">
         <v>57</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AK12" t="s">
         <v>58</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AL12" t="s">
         <v>77</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AM12" t="s">
         <v>59</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AN12" t="s">
         <v>60</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AO12" t="s">
         <v>64</v>
       </c>
-      <c r="AK12" t="s">
+      <c r="AP12" t="s">
         <v>61</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AQ12" t="s">
         <v>62</v>
       </c>
-      <c r="AM12" t="s">
+      <c r="AR12" t="s">
         <v>63</v>
       </c>
-      <c r="AN12" t="s">
+      <c r="AS12" t="s">
         <v>65</v>
       </c>
-      <c r="AO12" t="s">
+      <c r="AT12" t="s">
         <v>78</v>
       </c>
-      <c r="AP12" t="s">
+      <c r="AU12" t="s">
         <v>66</v>
       </c>
-      <c r="AQ12" t="s">
+      <c r="AV12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -1997,20 +2183,20 @@
       <c r="L13">
         <v>1</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>0</v>
       </c>
-      <c r="Q13" t="s">
-        <v>154</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="S13" t="s">
+        <v>150</v>
+      </c>
+      <c r="V13" t="s">
         <v>52</v>
       </c>
-      <c r="V13" t="s">
+      <c r="Y13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -2038,34 +2224,34 @@
       <c r="L14">
         <v>2</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>0</v>
       </c>
-      <c r="Q14" t="s">
-        <v>155</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="S14" t="s">
+        <v>151</v>
+      </c>
+      <c r="V14" t="s">
         <v>52</v>
       </c>
-      <c r="V14" t="s">
+      <c r="Y14" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>28</v>
@@ -2079,31 +2265,31 @@
       <c r="L15">
         <v>1</v>
       </c>
-      <c r="P15">
+      <c r="R15">
         <v>0</v>
       </c>
-      <c r="V15" t="s">
+      <c r="Y15" t="s">
         <v>33</v>
       </c>
-      <c r="X15" t="s">
-        <v>113</v>
+      <c r="AC15" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>28</v>
@@ -2117,37 +2303,37 @@
       <c r="L16">
         <v>1</v>
       </c>
-      <c r="P16">
+      <c r="R16">
         <v>0</v>
       </c>
-      <c r="Q16" t="s">
-        <v>156</v>
-      </c>
-      <c r="V16" t="s">
+      <c r="S16" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y16" t="s">
         <v>33</v>
       </c>
-      <c r="W16">
+      <c r="AB16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>28</v>
@@ -2161,28 +2347,28 @@
       <c r="L17">
         <v>1</v>
       </c>
-      <c r="P17">
+      <c r="R17">
         <v>0</v>
       </c>
-      <c r="V17" t="s">
+      <c r="Y17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>28</v>
@@ -2196,31 +2382,31 @@
       <c r="L18">
         <v>1</v>
       </c>
-      <c r="P18">
+      <c r="R18">
         <v>0</v>
       </c>
-      <c r="Q18" t="s">
-        <v>159</v>
-      </c>
-      <c r="V18" t="s">
+      <c r="S18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>28</v>
@@ -2234,31 +2420,31 @@
       <c r="L19">
         <v>1</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>0</v>
       </c>
-      <c r="Q19" t="s">
-        <v>162</v>
-      </c>
-      <c r="V19" t="s">
+      <c r="S19" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y19" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>28</v>
@@ -2272,14 +2458,161 @@
       <c r="L20">
         <v>1</v>
       </c>
-      <c r="P20">
+      <c r="R20">
         <v>0</v>
       </c>
-      <c r="V20" t="s">
+      <c r="Y20" t="s">
         <v>33</v>
       </c>
-      <c r="AR20" t="s">
+      <c r="AW20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>168</v>
+      </c>
+      <c r="D21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="D22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22" t="s">
+        <v>129</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BC22" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>206</v>
+      </c>
+      <c r="B23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>200</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="W23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>205</v>
+      </c>
+      <c r="W24" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
